--- a/token nbc tugas akhir.xlsx
+++ b/token nbc tugas akhir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 6\Data Mining II\Ujian Akhir Semester_Data Mining II\UAS-DATA_MINING-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1813BE-3736-4515-AAA6-C7D46B7026FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB75894F-CA15-424F-843D-D5C04A042681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="630">
   <si>
     <t>from_user</t>
   </si>
@@ -2330,11 +2330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K225" sqref="K225"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I330" sqref="I330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2344,7 +2344,7 @@
     <col min="4" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2358,77 +2358,85 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>530</v>
+        <v>367</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E2" s="2">
         <f>IF(D2="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="2">
         <f>COUNTIF($E$2:$E$334,1)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF($D$2:$D$334,"NEGATIF")</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E3" s="2">
         <f>IF(D3="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="2">
         <f>COUNTIF($E$2:$E$334,-1)</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF($D$2:$D$334,"POSITIF")</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>458</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E4" s="2">
         <f>IF(D4="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>336</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>533</v>
+        <v>371</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>628</v>
@@ -2438,105 +2446,105 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>575</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6" s="2">
         <f>IF(D6="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E7" s="2">
         <f>IF(D7="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>472</v>
+        <v>379</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E8" s="2">
         <f>IF(D8="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>475</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E9" s="2">
         <f>IF(D9="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>573</v>
+        <v>381</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E10" s="2">
         <f>IF(D10="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>527</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>612</v>
+        <v>386</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>628</v>
@@ -2546,30 +2554,33 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>518</v>
+        <v>387</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E12" s="2">
         <f>IF(D12="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>628</v>
@@ -2579,33 +2590,33 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E14" s="2">
         <f>IF(D14="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>588</v>
+        <v>304</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>628</v>
@@ -2615,33 +2626,33 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E16" s="2">
         <f>IF(D16="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>567</v>
+        <v>306</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>628</v>
@@ -2653,13 +2664,13 @@
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>618</v>
+        <v>397</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>628</v>
@@ -2669,15 +2680,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>586</v>
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>628</v>
@@ -2687,22 +2698,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E20" s="2">
         <f>IF(D20="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2710,10 +2721,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>628</v>
@@ -2723,87 +2734,87 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>553</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>620</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E22" s="2">
         <f>IF(D22="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E23" s="2">
         <f>IF(D23="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E24" s="2">
         <f>IF(D24="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>480</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>600</v>
+        <v>413</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E25" s="2">
         <f>IF(D25="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>628</v>
@@ -2813,15 +2824,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>628</v>
@@ -2831,51 +2842,51 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E28" s="2">
         <f>IF(D28="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>355</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>540</v>
+        <v>317</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E29" s="2">
         <f>IF(D29="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>628</v>
@@ -2887,13 +2898,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>628</v>
@@ -2903,15 +2914,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>513</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>628</v>
@@ -2921,15 +2932,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>397</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>555</v>
+        <v>431</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>628</v>
@@ -2939,51 +2950,51 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>470</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>594</v>
+        <v>319</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E34" s="2">
         <f>IF(D34="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E35" s="2">
         <f>IF(D35="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>628</v>
@@ -2993,267 +3004,267 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>542</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E37" s="2">
         <f>IF(D37="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E38" s="2">
         <f>IF(D38="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>453</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>587</v>
+        <v>448</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E39" s="2">
         <f>IF(D39="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>523</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>611</v>
+        <v>322</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E40" s="2">
         <f>IF(D40="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E41" s="2">
         <f>IF(D41="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E42" s="2">
         <f>IF(D42="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E43" s="2">
         <f>IF(D43="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>428</v>
+        <v>294</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E44" s="2">
         <f>IF(D44="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>432</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E45" s="2">
         <f>IF(D45="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E46" s="2">
         <f>IF(D46="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E47" s="2">
         <f>IF(D47="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E48" s="2">
         <f>IF(D48="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E49" s="2">
         <f>IF(D49="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E50" s="2">
         <f>IF(D50="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>518</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>609</v>
+        <v>483</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>628</v>
@@ -3263,15 +3274,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>628</v>
@@ -3283,85 +3294,85 @@
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>585</v>
+        <v>492</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E53" s="2">
         <f>IF(D53="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E54" s="2">
         <f>IF(D54="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E55" s="2">
         <f>IF(D55="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>505</v>
+        <v>334</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E56" s="2">
         <f>IF(D56="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>628</v>
@@ -3371,15 +3382,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>628</v>
@@ -3389,87 +3400,87 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>324</v>
+        <v>525</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E59" s="2">
         <f>IF(D59="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>363</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E60" s="2">
         <f>IF(D60="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E61" s="2">
         <f>IF(D61="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>469</v>
+        <v>297</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E62" s="2">
         <f>IF(D62="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>321</v>
+        <v>534</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>628</v>
@@ -3479,15 +3490,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>460</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>358</v>
+        <v>539</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E64" s="2">
         <f>IF(D64="POSITIF",1,-1)</f>
@@ -3496,43 +3510,49 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>562</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>624</v>
+        <v>547</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E65" s="2">
         <f>IF(D65="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>467</v>
+        <v>550</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E66" s="2">
         <f>IF(D66="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>297</v>
+        <v>551</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>628</v>
@@ -3542,30 +3562,36 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>528</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>365</v>
+        <v>555</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E68" s="2">
         <f>IF(D68="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>504</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>604</v>
+        <v>563</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E69" s="2">
         <f>IF(D69="POSITIF",1,-1)</f>
@@ -3574,13 +3600,16 @@
     </row>
     <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>496</v>
+        <v>567</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E70" s="2">
         <f>IF(D70="POSITIF",1,-1)</f>
@@ -3589,289 +3618,340 @@
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E71" s="2">
         <f>IF(D71="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>503</v>
+        <v>586</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E72" s="2">
         <f>IF(D72="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>438</v>
+        <v>588</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E73" s="2">
         <f>IF(D73="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>299</v>
+        <v>592</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E74" s="2">
         <f>IF(D74="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>420</v>
+        <v>299</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E75" s="2">
         <f>IF(D75="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E76" s="2">
         <f>IF(D76="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>433</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>574</v>
+        <v>605</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E77" s="2">
         <f>IF(D77="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>553</v>
+        <v>606</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E78" s="2">
         <f>IF(D78="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>302</v>
+        <v>607</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E79" s="2">
         <f>IF(D79="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>332</v>
+        <v>609</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E80" s="2">
         <f>IF(D80="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>546</v>
+        <v>363</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E81" s="2">
         <f>IF(D81="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>564</v>
+        <v>612</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E82" s="2">
         <f>IF(D82="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>598</v>
+        <v>613</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E83" s="2">
         <f>IF(D83="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>342</v>
+        <v>615</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E84" s="2">
         <f>IF(D84="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>502</v>
+        <v>618</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E85" s="2">
         <f>IF(D85="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E86" s="2">
         <f>IF(D86="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>475</v>
+        <v>461</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E87" s="2">
         <f>IF(D87="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>511</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>606</v>
+        <v>408</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E88" s="2">
         <f>IF(D88="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>344</v>
+        <v>417</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E89" s="2">
         <f>IF(D89="POSITIF",1,-1)</f>
@@ -3880,13 +3960,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>320</v>
+        <v>419</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E90" s="2">
         <f>IF(D90="POSITIF",1,-1)</f>
@@ -3895,43 +3978,52 @@
     </row>
     <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>346</v>
+        <v>420</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E91" s="2">
         <f>IF(D91="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>615</v>
+        <v>421</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E92" s="2">
         <f>IF(D92="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>520</v>
+        <v>315</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E93" s="2">
         <f>IF(D93="POSITIF",1,-1)</f>
@@ -3940,13 +4032,16 @@
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>447</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>582</v>
+        <v>426</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E94" s="2">
         <f>IF(D94="POSITIF",1,-1)</f>
@@ -3955,196 +4050,229 @@
     </row>
     <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>426</v>
+        <v>433</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E95" s="2">
         <f>IF(D95="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>468</v>
+        <v>438</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E96" s="2">
         <f>IF(D96="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>476</v>
+        <v>441</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E97" s="2">
         <f>IF(D97="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>439</v>
+        <v>477</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E98" s="2">
         <f>IF(D98="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>531</v>
+        <v>496</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E99" s="2">
         <f>IF(D99="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E100" s="2">
         <f>IF(D100="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>338</v>
+        <v>501</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E101" s="2">
         <f>IF(D101="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>470</v>
+        <v>333</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E102" s="2">
         <f>IF(D102="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>421</v>
+        <v>510</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E103" s="2">
         <f>IF(D103="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>521</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>363</v>
+        <v>518</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E104" s="2">
         <f>IF(D104="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>485</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>360</v>
+        <v>524</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E105" s="2">
         <f>IF(D105="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>331</v>
+        <v>625</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E106" s="2">
         <f>IF(D106="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>387</v>
+        <v>557</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>628</v>
@@ -4154,186 +4282,240 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>517</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>608</v>
+        <v>560</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="E108" s="2">
         <f>IF(D108="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>393</v>
+        <v>580</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E109" s="2">
         <f>IF(D109="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>524</v>
+        <v>368</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E110" s="2">
         <f>IF(D110="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>501</v>
+        <v>369</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E111" s="2">
         <f>IF(D111="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>473</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>597</v>
+        <v>370</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E112" s="2">
         <f>IF(D112="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E113" s="2">
         <f>IF(D113="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>405</v>
+        <v>374</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E114" s="2">
         <f>IF(D114="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>429</v>
+        <v>375</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E115" s="2">
         <f>IF(D115="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>458</v>
+        <v>302</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E116" s="2">
         <f>IF(D116="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>519</v>
+        <v>377</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E117" s="2">
         <f>IF(D117="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>439</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>577</v>
+        <v>378</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E118" s="2">
         <f>IF(D118="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>629</v>
@@ -4342,106 +4524,145 @@
         <f>IF(D119="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G119" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>413</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>349</v>
+        <v>383</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E120" s="2">
         <f>IF(D120="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>426</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>570</v>
+        <v>384</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E121" s="2">
         <f>IF(D121="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>508</v>
+        <v>385</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E122" s="2">
         <f>IF(D122="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>333</v>
+        <v>303</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E123" s="2">
         <f>IF(D123="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>418</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>351</v>
+        <v>390</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E124" s="2">
         <f>IF(D124="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>560</v>
+        <v>391</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E125" s="2">
         <f>IF(D125="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>629</v>
@@ -4450,244 +4671,328 @@
         <f>IF(D126="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G126" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>557</v>
+        <v>393</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E127" s="2">
         <f>IF(D127="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>339</v>
+        <v>305</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E128" s="2">
         <f>IF(D128="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>561</v>
+        <v>395</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E129" s="2">
         <f>IF(D129="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>572</v>
+        <v>396</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E130" s="2">
         <f>IF(D130="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>427</v>
+        <v>106</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>571</v>
+        <v>398</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E131" s="2">
         <f>IF(D131="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>404</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>558</v>
+        <v>399</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E132" s="2">
         <f>IF(D132="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>562</v>
+        <v>401</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E133" s="2">
         <f>IF(D133="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>559</v>
+        <v>402</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E134" s="2">
         <f>IF(D134="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>464</v>
+        <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>590</v>
+        <v>403</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E135" s="2">
         <f>IF(D135="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E136" s="2">
         <f>IF(D136="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B137" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E137" s="2">
         <f>IF(D137="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>510</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>605</v>
+        <v>311</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E138" s="2">
         <f>IF(D138="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E139" s="2">
         <f>IF(D139="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E140" s="2">
         <f>IF(D140="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E141" s="2">
         <f>IF(D141="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B142" t="s">
         <v>61</v>
@@ -4702,34 +5007,40 @@
         <f>IF(D142="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G142" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>118</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E143" s="2">
         <f>IF(D143="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>629</v>
@@ -4738,16 +5049,19 @@
         <f>IF(D144="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G144" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>629</v>
@@ -4756,16 +5070,19 @@
         <f>IF(D145="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G145" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>629</v>
@@ -4774,52 +5091,61 @@
         <f>IF(D146="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G146" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E147" s="2">
         <f>IF(D147="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B148" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E148" s="2">
         <f>IF(D148="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>429</v>
+        <v>124</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>629</v>
@@ -4828,16 +5154,19 @@
         <f>IF(D149="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G149" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>308</v>
+        <v>440</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>629</v>
@@ -4846,16 +5175,19 @@
         <f>IF(D150="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G150" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>629</v>
@@ -4864,139 +5196,187 @@
         <f>IF(D151="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G151" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E152" s="2">
         <f>IF(D152="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>549</v>
+        <v>459</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E153" s="2">
         <f>IF(D153="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>465</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>591</v>
+        <v>460</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E154" s="2">
         <f>IF(D154="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>480</v>
+        <v>324</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E155" s="2">
         <f>IF(D155="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>552</v>
+        <v>462</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E156" s="2">
         <f>IF(D156="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E157" s="2">
         <f>IF(D157="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>504</v>
+        <v>466</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E158" s="2">
         <f>IF(D158="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>471</v>
+        <v>135</v>
       </c>
       <c r="B159" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>595</v>
+        <v>469</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E159" s="2">
         <f>IF(D159="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>629</v>
@@ -5005,166 +5385,229 @@
         <f>IF(D160="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G160" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B161" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>445</v>
+        <v>472</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E161" s="2">
         <f>IF(D161="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>478</v>
+        <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>599</v>
+        <v>479</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E162" s="2">
         <f>IF(D162="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>548</v>
+        <v>326</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E163" s="2">
         <f>IF(D163="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>314</v>
+        <v>485</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E164" s="2">
         <f>IF(D164="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>533</v>
+        <v>141</v>
       </c>
       <c r="B165" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>614</v>
+        <v>488</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E165" s="2">
         <f>IF(D165="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="B166" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E166" s="2">
         <f>IF(D166="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>541</v>
+        <v>505</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E167" s="2">
         <f>IF(D167="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B168" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>427</v>
+        <v>507</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E168" s="2">
         <f>IF(D168="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>404</v>
+        <v>509</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E169" s="2">
         <f>IF(D169="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>552</v>
+        <v>146</v>
       </c>
       <c r="B170" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>619</v>
+        <v>511</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E170" s="2">
         <f>IF(D170="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>629</v>
@@ -5173,16 +5616,19 @@
         <f>IF(D171="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G171" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>629</v>
@@ -5191,16 +5637,19 @@
         <f>IF(D172="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G172" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>629</v>
@@ -5209,142 +5658,166 @@
         <f>IF(D173="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G173" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E174" s="2">
         <f>IF(D174="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B175" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>322</v>
+        <v>522</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E175" s="2">
         <f>IF(D175="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E176" s="2">
         <f>IF(D176="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>561</v>
+        <v>153</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>623</v>
+        <v>527</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E177" s="2">
         <f>IF(D177="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>388</v>
+        <v>528</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E178" s="2">
         <f>IF(D178="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E179" s="2">
         <f>IF(D179="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E180" s="2">
         <f>IF(D180="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>629</v>
@@ -5353,124 +5826,145 @@
         <f>IF(D181="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G181" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E182" s="2">
         <f>IF(D182="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>379</v>
+        <v>540</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E183" s="2">
         <f>IF(D183="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>407</v>
+        <v>543</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E184" s="2">
         <f>IF(D184="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>318</v>
+        <v>545</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E185" s="2">
         <f>IF(D185="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E186" s="2">
         <f>IF(D186="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E187" s="2">
         <f>IF(D187="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="B188" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>517</v>
+        <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>629</v>
@@ -5479,280 +5973,355 @@
         <f>IF(D188="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G188" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="B189" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>337</v>
+        <v>565</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E189" s="2">
         <f>IF(D189="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>506</v>
+        <v>566</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E190" s="2">
         <f>IF(D190="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="B191" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>580</v>
+        <v>569</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E191" s="2">
         <f>IF(D191="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G191" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="B192" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>330</v>
+        <v>353</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E192" s="2">
         <f>IF(D192="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G192" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B193" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>454</v>
+        <v>573</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E193" s="2">
         <f>IF(D193="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G193" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>529</v>
+        <v>170</v>
       </c>
       <c r="B194" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>613</v>
+        <v>575</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E194" s="2">
         <f>IF(D194="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="B195" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>491</v>
+        <v>354</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E195" s="2">
         <f>IF(D195="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G195" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>477</v>
+        <v>355</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E196" s="2">
         <f>IF(D196="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>376</v>
+        <v>581</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E197" s="2">
         <f>IF(D197="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B198" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>430</v>
+        <v>585</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E198" s="2">
         <f>IF(D198="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="B199" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E199" s="2">
         <f>IF(D199="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E200" s="2">
         <f>IF(D200="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G200" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>367</v>
+        <v>593</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E201" s="2">
         <f>IF(D201="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G201" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B202" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E202" s="2">
         <f>IF(D202="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G202" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>386</v>
+        <v>595</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E203" s="2">
         <f>IF(D203="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="B204" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E204" s="2">
         <f>IF(D204="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>395</v>
+        <v>597</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>629</v>
@@ -5761,52 +6330,61 @@
         <f>IF(D205="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G205" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B206" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E206" s="2">
         <f>IF(D206="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>312</v>
+        <v>598</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E207" s="2">
         <f>IF(D207="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G207" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>559</v>
+        <v>184</v>
       </c>
       <c r="B208" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>629</v>
@@ -5815,16 +6393,19 @@
         <f>IF(D208="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G208" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>629</v>
@@ -5833,16 +6414,19 @@
         <f>IF(D209="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G209" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>501</v>
+        <v>186</v>
       </c>
       <c r="B210" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>629</v>
@@ -5851,34 +6435,40 @@
         <f>IF(D210="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G210" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E211" s="2">
         <f>IF(D211="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G211" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>467</v>
+        <v>188</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>629</v>
@@ -5887,16 +6477,19 @@
         <f>IF(D212="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G212" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>535</v>
+        <v>189</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>629</v>
@@ -5905,16 +6498,19 @@
         <f>IF(D213="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G213" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>465</v>
+        <v>604</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>629</v>
@@ -5923,52 +6519,61 @@
         <f>IF(D214="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G214" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E215" s="2">
         <f>IF(D215="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G215" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>466</v>
+        <v>192</v>
       </c>
       <c r="B216" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E216" s="2">
         <f>IF(D216="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>327</v>
+        <v>193</v>
       </c>
       <c r="B217" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>629</v>
@@ -5977,31 +6582,37 @@
         <f>IF(D217="POSITIF",1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G217" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B218" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>486</v>
+        <v>611</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E218" s="2">
         <f>IF(D218="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>629</v>
@@ -6011,180 +6622,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>542</v>
+        <v>365</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E220" s="2">
         <f>IF(D220="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>361</v>
+        <v>197</v>
       </c>
       <c r="B221" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>544</v>
+        <v>614</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E221" s="2">
         <f>IF(D221="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="B222" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>495</v>
+        <v>616</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E222" s="2">
         <f>IF(D222="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B223" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>494</v>
+        <v>617</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E223" s="2">
         <f>IF(D223="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>536</v>
+        <v>200</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>617</v>
+        <v>366</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E224" s="2">
         <f>IF(D224="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>497</v>
+        <v>201</v>
       </c>
       <c r="B225" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>601</v>
+        <v>619</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E225" s="2">
         <f>IF(D225="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="B226" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>443</v>
+        <v>620</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E226" s="2">
         <f>IF(D226="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="B227" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>452</v>
+        <v>621</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E227" s="2">
         <f>IF(D227="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="B228" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>417</v>
+        <v>622</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E228" s="2">
         <f>IF(D228="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="B229" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>345</v>
+        <v>624</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E229" s="2">
         <f>IF(D229="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="B230" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>523</v>
+        <v>404</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E230" s="2">
         <f>IF(D230="POSITIF",1,-1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>629</v>
@@ -6194,180 +6838,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>502</v>
+        <v>208</v>
       </c>
       <c r="B232" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>603</v>
+        <v>310</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E232" s="2">
         <f>IF(D232="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>463</v>
+        <v>210</v>
       </c>
       <c r="B233" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>298</v>
+        <v>410</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E233" s="2">
         <f>IF(D233="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B234" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>481</v>
+        <v>416</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E234" s="2">
         <f>IF(D234="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="B235" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>583</v>
+        <v>314</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E235" s="2">
         <f>IF(D235="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>424</v>
+        <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>568</v>
+        <v>422</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E236" s="2">
         <f>IF(D236="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>519</v>
+        <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>610</v>
+        <v>423</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E237" s="2">
         <f>IF(D237="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>399</v>
+        <v>221</v>
       </c>
       <c r="B238" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>556</v>
+        <v>427</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E238" s="2">
         <f>IF(D238="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="B239" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>512</v>
+        <v>429</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E239" s="2">
         <f>IF(D239="POSITIF",1,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>411</v>
+        <v>224</v>
       </c>
       <c r="B240" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>348</v>
+        <v>434</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="E240" s="2">
         <f>IF(D240="POSITIF",1,-1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E241" s="2">
         <f>IF(D241="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="E242" s="2">
         <f>IF(D242="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="E243" s="2">
         <f>IF(D243="POSITIF",1,-1)</f>
@@ -6376,58 +7047,58 @@
     </row>
     <row r="244" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>449</v>
+        <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>584</v>
+        <v>445</v>
       </c>
       <c r="E244" s="2">
         <f>IF(D244="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="B245" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E245" s="2">
         <f>IF(D245="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="B246" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>538</v>
+        <v>450</v>
       </c>
       <c r="E246" s="2">
         <f>IF(D246="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="B247" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="E247" s="2">
         <f>IF(D247="POSITIF",1,-1)</f>
@@ -6436,121 +7107,118 @@
     </row>
     <row r="248" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
       <c r="E248" s="2">
         <f>IF(D248="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="B249" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E249" s="2">
         <f>IF(D249="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="B250" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>315</v>
+        <v>457</v>
       </c>
       <c r="E250" s="2">
         <f>IF(D250="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="B251" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>628</v>
+        <v>458</v>
       </c>
       <c r="E251" s="2">
         <f>IF(D251="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>437</v>
+        <v>238</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="E252" s="2">
         <f>IF(D252="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="B253" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="E253" s="2">
         <f>IF(D253="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B254" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="E254" s="2">
         <f>IF(D254="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
+        <v>241</v>
+      </c>
+      <c r="B255" t="s">
         <v>122</v>
       </c>
-      <c r="B255" t="s">
-        <v>80</v>
-      </c>
       <c r="C255" s="4" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="E255" s="2">
         <f>IF(D255="POSITIF",1,-1)</f>
@@ -6559,28 +7227,28 @@
     </row>
     <row r="256" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="E256" s="2">
         <f>IF(D256="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="B257" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="E257" s="2">
         <f>IF(D257="POSITIF",1,-1)</f>
@@ -6589,73 +7257,73 @@
     </row>
     <row r="258" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E258" s="2">
         <f>IF(D258="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>462</v>
+        <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>589</v>
+        <v>327</v>
       </c>
       <c r="E259" s="2">
         <f>IF(D259="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="E260" s="2">
         <f>IF(D260="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="B261" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E261" s="2">
         <f>IF(D261="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="E262" s="2">
         <f>IF(D262="POSITIF",1,-1)</f>
@@ -6664,43 +7332,43 @@
     </row>
     <row r="263" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="B263" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="E263" s="2">
         <f>IF(D263="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>529</v>
+        <v>330</v>
       </c>
       <c r="E264" s="2">
         <f>IF(D264="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="B265" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="E265" s="2">
         <f>IF(D265="POSITIF",1,-1)</f>
@@ -6709,13 +7377,13 @@
     </row>
     <row r="266" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B266" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E266" s="2">
         <f>IF(D266="POSITIF",1,-1)</f>
@@ -6724,28 +7392,28 @@
     </row>
     <row r="267" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="B267" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="E267" s="2">
         <f>IF(D267="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="B268" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>340</v>
+        <v>491</v>
       </c>
       <c r="E268" s="2">
         <f>IF(D268="POSITIF",1,-1)</f>
@@ -6754,472 +7422,418 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>441</v>
+        <v>256</v>
       </c>
       <c r="B269" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>578</v>
+        <v>494</v>
       </c>
       <c r="E269" s="2">
         <f>IF(D269="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E270" s="2">
         <f>IF(D270="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B271" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>296</v>
+        <v>499</v>
       </c>
       <c r="E271" s="2">
         <f>IF(D271="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="B272" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="E272" s="2">
         <f>IF(D272="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B273" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>510</v>
+        <v>331</v>
       </c>
       <c r="E273" s="2">
         <f>IF(D273="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B274" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>327</v>
+        <v>502</v>
       </c>
       <c r="E274" s="2">
         <f>IF(D274="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>554</v>
+        <v>265</v>
       </c>
       <c r="B275" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>621</v>
+        <v>503</v>
       </c>
       <c r="E275" s="2">
         <f>IF(D275="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="B276" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="E276" s="2">
         <f>IF(D276="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>516</v>
+        <v>268</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="E277" s="2">
         <f>IF(D277="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B278" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E278" s="2">
         <f>IF(D278="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B279" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>629</v>
+        <v>296</v>
       </c>
       <c r="E279" s="2">
         <f>IF(D279="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B280" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>629</v>
+        <v>508</v>
       </c>
       <c r="E280" s="2">
         <f>IF(D280="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="B281" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>629</v>
+        <v>512</v>
       </c>
       <c r="E281" s="2">
         <f>IF(D281="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="B282" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>629</v>
+        <v>337</v>
       </c>
       <c r="E282" s="2">
         <f>IF(D282="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>629</v>
+        <v>338</v>
       </c>
       <c r="E283" s="2">
         <f>IF(D283="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="B284" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>629</v>
+        <v>514</v>
       </c>
       <c r="E284" s="2">
         <f>IF(D284="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="B285" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>629</v>
+        <v>516</v>
       </c>
       <c r="E285" s="2">
         <f>IF(D285="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>628</v>
+        <v>519</v>
       </c>
       <c r="E286" s="2">
         <f>IF(D286="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="B287" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="E287" s="2">
         <f>IF(D287="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>629</v>
+        <v>523</v>
       </c>
       <c r="E288" s="2">
         <f>IF(D288="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
       <c r="E289" s="2">
         <f>IF(D289="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="B290" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>628</v>
+        <v>531</v>
       </c>
       <c r="E290" s="2">
         <f>IF(D290="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
       <c r="E291" s="2">
         <f>IF(D291="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="B292" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>629</v>
+        <v>541</v>
       </c>
       <c r="E292" s="2">
         <f>IF(D292="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>629</v>
+        <v>542</v>
       </c>
       <c r="E293" s="2">
         <f>IF(D293="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="B294" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>628</v>
+        <v>544</v>
       </c>
       <c r="E294" s="2">
         <f>IF(D294="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="B295" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="E295" s="2">
         <f>IF(D295="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="B296" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>628</v>
+        <v>339</v>
       </c>
       <c r="E296" s="2">
         <f>IF(D296="POSITIF",1,-1)</f>
@@ -7228,106 +7842,88 @@
     </row>
     <row r="297" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="E297" s="2">
         <f>IF(D297="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="B298" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
       <c r="E298" s="2">
         <f>IF(D298="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>628</v>
+        <v>340</v>
       </c>
       <c r="E299" s="2">
         <f>IF(D299="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="B300" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>628</v>
+        <v>342</v>
       </c>
       <c r="E300" s="2">
         <f>IF(D300="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>629</v>
+        <v>552</v>
       </c>
       <c r="E301" s="2">
         <f>IF(D301="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="E302" s="2">
         <f>IF(D302="POSITIF",1,-1)</f>
@@ -7336,16 +7932,13 @@
     </row>
     <row r="303" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>444</v>
+        <v>298</v>
       </c>
       <c r="B303" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="E303" s="2">
         <f>IF(D303="POSITIF",1,-1)</f>
@@ -7354,16 +7947,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="B304" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>628</v>
+        <v>344</v>
       </c>
       <c r="E304" s="2">
         <f>IF(D304="POSITIF",1,-1)</f>
@@ -7372,124 +7962,103 @@
     </row>
     <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>445</v>
+        <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="E305" s="2">
         <f>IF(D305="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B306" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>629</v>
+        <v>345</v>
       </c>
       <c r="E306" s="2">
         <f>IF(D306="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B307" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>629</v>
+        <v>346</v>
       </c>
       <c r="E307" s="2">
         <f>IF(D307="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B308" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>629</v>
+        <v>558</v>
       </c>
       <c r="E308" s="2">
         <f>IF(D308="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B309" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="E309" s="2">
         <f>IF(D309="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="E310" s="2">
         <f>IF(D310="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
       <c r="E311" s="2">
         <f>IF(D311="POSITIF",1,-1)</f>
@@ -7498,52 +8067,43 @@
     </row>
     <row r="312" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>629</v>
+        <v>347</v>
       </c>
       <c r="E312" s="2">
         <f>IF(D312="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>629</v>
+        <v>348</v>
       </c>
       <c r="E313" s="2">
         <f>IF(D313="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>628</v>
+        <v>349</v>
       </c>
       <c r="E314" s="2">
         <f>IF(D314="POSITIF",1,-1)</f>
@@ -7552,16 +8112,13 @@
     </row>
     <row r="315" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="E315" s="2">
         <f>IF(D315="POSITIF",1,-1)</f>
@@ -7570,322 +8127,268 @@
     </row>
     <row r="316" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>628</v>
+        <v>351</v>
       </c>
       <c r="E316" s="2">
         <f>IF(D316="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>629</v>
+        <v>352</v>
       </c>
       <c r="E317" s="2">
         <f>IF(D317="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="E318" s="2">
         <f>IF(D318="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="E319" s="2">
         <f>IF(D319="POSITIF",1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="E320" s="2">
         <f>IF(D320="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="E321" s="2">
         <f>IF(D321="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="E322" s="2">
         <f>IF(D322="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="E323" s="2">
         <f>IF(D323="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="E324" s="2">
         <f>IF(D324="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="E325" s="2">
         <f>IF(D325="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="E326" s="2">
         <f>IF(D326="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="E327" s="2">
         <f>IF(D327="POSITIF",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="E328" s="2">
         <f>IF(D328="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>503</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="E329" s="2">
         <f>IF(D329="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>629</v>
+        <v>358</v>
       </c>
       <c r="E330" s="2">
         <f>IF(D330="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="E331" s="2">
         <f>IF(D331="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>629</v>
+        <v>298</v>
       </c>
       <c r="E332" s="2">
         <f>IF(D332="POSITIF",1,-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="E333" s="2">
         <f>IF(D333="POSITIF",1,-1)</f>
@@ -7894,16 +8397,13 @@
     </row>
     <row r="334" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="E334" s="2">
         <f>IF(D334="POSITIF",1,-1)</f>
@@ -8260,7 +8760,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E334">
-    <sortCondition ref="C2:C334"/>
+    <sortCondition ref="D334"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D334" xr:uid="{61B87BBF-29A2-41A1-BF0E-34121DB000D0}">
